--- a/COVID NFLStats/K/K_aggregate.xlsx
+++ b/COVID NFLStats/K/K_aggregate.xlsx
@@ -485,7 +485,7 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>Ka'imi Fairbairn</t>
+          <t>BrandonMcManus</t>
         </is>
       </c>
       <c r="B2" s="2" t="inlineStr">
@@ -494,16 +494,16 @@
         </is>
       </c>
       <c r="C2" s="2" t="n">
-        <v>82</v>
+        <v>83.86666666666666</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>56.33333333333334</v>
+        <v>57.33333333333334</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
         <is>
-          <t>Ka'imi Fairbairn</t>
+          <t>BrandonMcManus</t>
         </is>
       </c>
       <c r="B3" s="2" t="inlineStr">
@@ -512,16 +512,16 @@
         </is>
       </c>
       <c r="C3" s="2" t="n">
-        <v>91.86666666666667</v>
+        <v>84.69999999999999</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>56.33333333333334</v>
+        <v>55.33333333333334</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
         <is>
-          <t>Ka'imi Fairbairn</t>
+          <t>BrandonMcManus</t>
         </is>
       </c>
       <c r="B4" s="2" t="inlineStr">
@@ -530,10 +530,10 @@
         </is>
       </c>
       <c r="C4" s="2" t="n">
-        <v>9.866666666666674</v>
+        <v>0.8333333333333286</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="5">
@@ -647,7 +647,7 @@
     <row r="11">
       <c r="A11" s="3" t="inlineStr">
         <is>
-          <t>BrandonMcManus</t>
+          <t>Ka'imi Fairbairn</t>
         </is>
       </c>
       <c r="B11" s="3" t="inlineStr">
@@ -656,16 +656,16 @@
         </is>
       </c>
       <c r="C11" s="3" t="n">
-        <v>83.86666666666666</v>
+        <v>82</v>
       </c>
       <c r="D11" s="3" t="n">
-        <v>57.33333333333334</v>
+        <v>56.33333333333334</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="3" t="inlineStr">
         <is>
-          <t>BrandonMcManus</t>
+          <t>Ka'imi Fairbairn</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -674,16 +674,16 @@
         </is>
       </c>
       <c r="C12" s="3" t="n">
-        <v>84.69999999999999</v>
+        <v>91.86666666666667</v>
       </c>
       <c r="D12" s="3" t="n">
-        <v>55.33333333333334</v>
+        <v>56.33333333333334</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="3" t="inlineStr">
         <is>
-          <t>BrandonMcManus</t>
+          <t>Ka'imi Fairbairn</t>
         </is>
       </c>
       <c r="B13" s="3" t="inlineStr">
@@ -692,10 +692,10 @@
         </is>
       </c>
       <c r="C13" s="3" t="n">
-        <v>0.8333333333333286</v>
+        <v>9.866666666666674</v>
       </c>
       <c r="D13" s="3" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
